--- a/data/trans_orig/P14B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDF2B8D-FC4D-426D-A0BF-EE9CE289D60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FE24EF-CEFC-490E-8B10-1272B922DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06C78B16-4685-47F3-8E9E-D8ED639E7227}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E59D12CC-C276-4E75-8D7E-9ED04F52F8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
   <si>
     <t>Población cuya fibromialgia le limita en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -106,19 +106,19 @@
     <t>74,06%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,19 +127,19 @@
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -151,13 +151,13 @@
     <t>94,99%</t>
   </si>
   <si>
-    <t>71,75%</t>
+    <t>69,78%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>73,94%</t>
   </si>
   <si>
     <t>31,09%</t>
@@ -166,13 +166,13 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>30,22%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>26,06%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -181,25 +181,25 @@
     <t>93,94%</t>
   </si>
   <si>
-    <t>68,53%</t>
+    <t>72,72%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>66,97%</t>
+    <t>74,52%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>31,47%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>33,03%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -211,13 +211,13 @@
     <t>96,71%</t>
   </si>
   <si>
-    <t>86,23%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>80,91%</t>
+    <t>81,15%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -226,67 +226,67 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>13,77%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>19,09%</t>
+    <t>18,85%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -298,25 +298,25 @@
     <t>65,95%</t>
   </si>
   <si>
-    <t>21,25%</t>
+    <t>19,37%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>18,14%</t>
+    <t>34,15%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>78,75%</t>
+    <t>80,63%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>81,86%</t>
+    <t>65,85%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -325,13 +325,13 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>69,14%</t>
+    <t>67,57%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>71,21%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -340,13 +340,13 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>32,43%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>28,79%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>32,92%</t>
@@ -355,19 +355,19 @@
     <t>84,46%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>67,08%</t>
@@ -376,55 +376,55 @@
     <t>15,54%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>82,14%</t>
@@ -436,19 +436,19 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>17,86%</t>
@@ -460,67 +460,73 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -541,205 +547,205 @@
     <t>70,44%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>83,46%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>27,48%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>72,52%</t>
+    <t>75,51%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>69,2%</t>
+    <t>73,99%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>30,8%</t>
+    <t>26,01%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43749A0F-E6B7-4BB5-BE8A-6334AE01CB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D002427-269D-4BFF-B5AA-E64188D89605}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2208,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C616A6A-9BF9-4799-9578-778B9F1330A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0167233-07BD-47F3-BB1C-8823A38AC640}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,10 +3116,10 @@
         <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -3122,13 +3128,13 @@
         <v>104482</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3137,13 +3143,13 @@
         <v>115329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3164,13 @@
         <v>3202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3173,13 +3179,13 @@
         <v>20586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3188,13 +3194,13 @@
         <v>23787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A96BE4-15D2-41F4-A916-7F14BFBFEC58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B010864B-F71B-4ABF-9AAC-AF19A41D7844}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3288,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3408,10 +3414,10 @@
         <v>2379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -3423,10 +3429,10 @@
         <v>2379</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -3457,13 +3463,13 @@
         <v>966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3472,13 +3478,13 @@
         <v>966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3565,13 @@
         <v>14544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3574,13 +3580,13 @@
         <v>18882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3616,13 @@
         <v>6102</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3625,13 +3631,13 @@
         <v>6102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3720,13 @@
         <v>39014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3729,13 +3735,13 @@
         <v>40788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3771,13 @@
         <v>9044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3780,13 +3786,13 @@
         <v>9044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3875,13 @@
         <v>21808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3884,13 +3890,13 @@
         <v>25597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3926,13 @@
         <v>5073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3935,13 +3941,13 @@
         <v>5074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,10 +4015,10 @@
         <v>3750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -4024,13 +4030,13 @@
         <v>44517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4039,13 +4045,13 @@
         <v>48267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4066,13 @@
         <v>1180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4075,13 +4081,13 @@
         <v>11134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4090,13 +4096,13 @@
         <v>12314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4170,10 @@
         <v>13651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -4179,13 +4185,13 @@
         <v>122262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -4194,13 +4200,13 @@
         <v>135913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4221,13 @@
         <v>1180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -4230,13 +4236,13 @@
         <v>32320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -4245,13 +4251,13 @@
         <v>33500</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FE24EF-CEFC-490E-8B10-1272B922DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5451231D-2F1B-40E3-8037-D47DB4429083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E59D12CC-C276-4E75-8D7E-9ED04F52F8FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32AC0015-4611-4752-A320-A36AA2AD09FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="234">
   <si>
     <t>Población cuya fibromialgia le limita en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,7 +97,7 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -106,19 +106,19 @@
     <t>74,06%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,22 +127,22 @@
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,91%</t>
@@ -151,13 +151,13 @@
     <t>94,99%</t>
   </si>
   <si>
-    <t>69,78%</t>
+    <t>72,08%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>73,94%</t>
+    <t>73,73%</t>
   </si>
   <si>
     <t>31,09%</t>
@@ -166,40 +166,40 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>30,22%</t>
+    <t>27,92%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>72,72%</t>
+    <t>68,28%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>74,52%</t>
+    <t>74,1%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>27,28%</t>
+    <t>31,72%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>25,48%</t>
+    <t>25,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -211,13 +211,13 @@
     <t>96,71%</t>
   </si>
   <si>
-    <t>82,81%</t>
+    <t>86,4%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>81,15%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -226,19 +226,19 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>13,6%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>18,85%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>87,18%</t>
@@ -247,19 +247,19 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>41,29%</t>
@@ -268,55 +268,55 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya fibromialgia le limita en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población cuya fibromialgia le limita en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>65,95%</t>
   </si>
   <si>
-    <t>19,37%</t>
+    <t>20,62%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>34,15%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>80,63%</t>
+    <t>79,38%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>65,85%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -325,13 +325,13 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>67,57%</t>
+    <t>68,49%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>72,04%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -340,13 +340,13 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>32,43%</t>
+    <t>31,51%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>27,96%</t>
+    <t>27,49%</t>
   </si>
   <si>
     <t>32,92%</t>
@@ -355,19 +355,19 @@
     <t>84,46%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>67,08%</t>
@@ -376,157 +376,157 @@
     <t>15,54%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>20,35%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>79,65%</t>
+    <t>71,56%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -559,9 +559,6 @@
     <t>59,79%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
     <t>29,56%</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
   </si>
   <si>
     <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
   </si>
   <si>
     <t>40,21%</t>
@@ -1157,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D002427-269D-4BFF-B5AA-E64188D89605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1121DAD-90F9-4FA8-A292-71E79789C873}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2214,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0167233-07BD-47F3-BB1C-8823A38AC640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DDEF2D-EDA4-4DB3-8902-574C5F9070AF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3277,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B010864B-F71B-4ABF-9AAC-AF19A41D7844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D0C7E2-9113-4E6F-8253-47625E73ABD5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,7 +3580,7 @@
         <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3610,13 @@
         <v>6102</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3631,13 +3625,13 @@
         <v>6102</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3714,13 @@
         <v>39014</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3735,13 +3729,13 @@
         <v>40788</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3765,13 @@
         <v>9044</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3786,13 +3780,13 @@
         <v>9044</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3869,13 @@
         <v>21808</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3890,13 +3884,13 @@
         <v>25597</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3920,13 @@
         <v>5073</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3941,13 +3935,13 @@
         <v>5074</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,10 +4009,10 @@
         <v>3750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -4030,13 +4024,13 @@
         <v>44517</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4045,13 +4039,13 @@
         <v>48267</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4060,13 @@
         <v>1180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4081,13 +4075,13 @@
         <v>11134</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4096,13 +4090,13 @@
         <v>12314</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,10 +4164,10 @@
         <v>13651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -4185,13 +4179,13 @@
         <v>122262</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -4200,13 +4194,13 @@
         <v>135913</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4215,13 @@
         <v>1180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -4236,13 +4230,13 @@
         <v>32320</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -4251,13 +4245,13 @@
         <v>33500</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
